--- a/biology/Botanique/Nacional_(cacao)/Nacional_(cacao).xlsx
+++ b/biology/Botanique/Nacional_(cacao)/Nacional_(cacao).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theobroma cacao nacional
-Le Nacional, également nommé arriba, ou arriba nacional[1], est un cultivar de cacaoyer issu du forastero[1]. Il est cultivé initialement en Équateur, pays où il a été mis au point[1], au pied de la cordillère des Andes, puis sa culture s'est étendue au Pérou[2].
+Le Nacional, également nommé arriba, ou arriba nacional, est un cultivar de cacaoyer issu du forastero. Il est cultivé initialement en Équateur, pays où il a été mis au point, au pied de la cordillère des Andes, puis sa culture s'est étendue au Pérou.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété de cacao équatorienne appelée « Nacional » retrace sa lignée génétique jusqu'à 3500 ans en arrière, jusqu'aux premiers cacaoyers connus domestiqués par l'humanité. 
-Aux 18e et 19e siècles, le Nacional était considéré par de nombreux chocolatiers européens comme la source de cacao la plus convoitée au monde en raison de son arôme floral et de son profil de saveur complexe[3]. C'était l'âge d'or du cacao équatorien, qui a pris fin brutalement en 1916, lorsqu'une épidémie de la maladie du balai de sorcière a dévasté la variété Nacional dans tout le pays[3].
+Aux 18e et 19e siècles, le Nacional était considéré par de nombreux chocolatiers européens comme la source de cacao la plus convoitée au monde en raison de son arôme floral et de son profil de saveur complexe. C'était l'âge d'or du cacao équatorien, qui a pris fin brutalement en 1916, lorsqu'une épidémie de la maladie du balai de sorcière a dévasté la variété Nacional dans tout le pays.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa cabosse est verte avec des stries profondes[1]. Ses arômes délicats (notes florales[1] de jasmin, de fleur d'oranger, constituant l'arôme dit « arriba ») en font un cacao fin et aromatique à la production rare. 
-Il ne constitue que 0,0012 % de la production mondiale en 2014[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa cabosse est verte avec des stries profondes. Ses arômes délicats (notes florales de jasmin, de fleur d'oranger, constituant l'arôme dit « arriba ») en font un cacao fin et aromatique à la production rare. 
+Il ne constitue que 0,0012 % de la production mondiale en 2014.
 </t>
         </is>
       </c>
